--- a/02_programme_task/xlsx_out/53.2 Thessalonians.xlsx
+++ b/02_programme_task/xlsx_out/53.2 Thessalonians.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,480 +448,600 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2 Thessalonians 1:2</t>
+          <t>2 Thessalonians 1:1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grace to you and peace from God our Father and the Lord Jesus Christ. Thanksgiving 3</t>
+          <t>The Second Letter of Paul to the Thessalonians Thessalonians Greeting</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2 Thessalonians 1:4</t>
+          <t>2 Thessalonians 1:2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Therefore we ourselves boast about you in the churches of God for your steadfastness and faith in all your persecutions and in the afflictions that you are enduring. The Judgment at Christ's Coming 5</t>
+          <t>a Paul, Silvanus, and Timothy, To the church of the Thessalonians in God our Father and the Lord Jesus Christ:</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2 Thessalonians 1:5</t>
+          <t>2 Thessalonians 1:2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>This is evidence of the righteous judgment of God, that you may be considered worthy of the kingdom of God, for which you are also sufferin16 g16 6</t>
+          <t>Grace to you and peace from God our Father and the Lord Jesus Christ. Thanksgiving</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2 Thessalonians 1:6</t>
+          <t>2 Thessalonians 1:3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>since indeed God considers it just to repay with affliction those who afflict you, 7</t>
+          <t>b We ought always to give thanks to God for you, brothers, as is right, because your faith is growing abundantly, and the love of every one of you for one another is increasing.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2 Thessalonians 1:7</t>
+          <t>2 Thessalonians 1:4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>and to grant relief to you who are afflicted as well as to us, when the Lord Jesus is revealed from heaven with his mighty angels 8</t>
+          <t>Therefore c we ourselves boast about you d in the churches of God for your steadfastness and faith e in all your persecutions and in the afflictions that you are enduring. The Judgment at Christ s Coming</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2 Thessalonians 1:9</t>
+          <t>2 Thessalonians 1:5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>They will suffer the punishment of eternal destruction, away fro16 m the presence of the Lord and from the glory of his might,</t>
+          <t>This is f evidence of the righteous judgment of God, that you may be g considered worthy of the kingdom of God, for which you are also sufferin g</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2 Thessalonians 1:11</t>
+          <t>2 Thessalonians 1:6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>To this end we always pray for you, that our God may make you worthy of his calling and may fulfill every resolve for good and every work of faith by his power,</t>
+          <t>since indeed God considers it h just i to repay with affliction those who afflict you,</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2 Thessalonians 1:12</t>
+          <t>2 Thessalonians 1:7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>so that the name of our Lord Jesus may be glorified in you, and you in him, according to the grace of our God and the Lord Jesus Christ. The Man of Lawlessness 2</t>
+          <t>and to grant j relief to you who are afflicted as well as to us, when k the Lord Jesus is revealed from heaven l with his mighty angels</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2 Thessalonians 2:1</t>
+          <t>2 Thessalonians 1:8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Now concerning the coming of our Lord Jesus Christ and our being gathered together to him, we ask you, brothers, 2</t>
+          <t>m in flaming fire, inflicting vengeance on those n who do not know God and on those who o do not obey the gospel of our Lord Jesus.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2 Thessalonians 2:2</t>
+          <t>2 Thessalonians 1:9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>not to be quickly shaken in mind or alarmed, either by a spirit or a spoken word, or a letter seeming to be from us, to the effect that the day of the Lord has come. 3</t>
+          <t>They will suffer the punishment of p eternal destruction, q away from the presence of the Lord and from the glory of his might,</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2 Thessalonians 2:4</t>
+          <t>2 Thessalonians 1:10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>who opposes and exalts himself against every so- called god or object of worship, so that he takes his seat in the temple of God, proclaiming himself to be God. 5</t>
+          <t>r when he comes on s that day t to be glorified in his saints, and to be marveled at among all who have believed, because our u testimony to you v was believed.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2 Thessalonians 2:5</t>
+          <t>2 Thessalonians 1:11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Do you not remember that when I was still with you I told you these things 6</t>
+          <t>To this end we w always pray for you, that our God may x make you worthy of his calling and may fulfill every resolve for good and every y work of faith by his power,</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2 Thessalonians 2:6</t>
+          <t>2 Thessalonians 1:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>And you know what is restraining him now so that he may be revealed in his time. 7</t>
+          <t>so that the name of our Lord Jesus z may be glorified in you, and you in him, according to the grace of our God and the Lord Jesus Christ. The Man of Lawlessness</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2 Thessalonians 2:7</t>
+          <t>2 Thessalonians 2:1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>For the mystery of lawlessness is already at work. Only he who now restrains it will do so until he is out of the way. 8</t>
+          <t>Now concerning a the coming of our Lord Jesus Christ and our b being gathered together to him, we ask you, brothers,</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2 Thessalonians 2:8</t>
+          <t>2 Thessalonians 2:2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>And then the lawless one will be revealed, whom the Lord Jesus will kill with the breath of his mouth and bring to nothing by the appearance of his coming. 9</t>
+          <t>not to be quickly shaken in mind or c alarmed, either d by a spirit or a e spoken word, or e a letter seeming to be from us, to the effect that f the day of the Lord has come.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2 Thessalonians 2:9</t>
+          <t>2 Thessalonians 2:3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The coming of the lawless one is by the activity of Satan with all power and false signs and wonders,</t>
+          <t>g Let no one deceive you in any way. For that day will not come, h unless the rebellion comes first, and i the man of lawlessnes s is revealed, j the son of destruction,</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2 Thessalonians 2:10</t>
+          <t>2 Thessalonians 2:4</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>and with all wicked deception for those who are perishing, because they refused to love the truth and so be saved.</t>
+          <t>who opposes and exalts himself against every so-called god or object of worship, so that he takes his seat in the temple of God, k proclaiming himself to be God.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2 Thessalonians 2:11</t>
+          <t>2 Thessalonians 2:5</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Therefore God sends them a strong delusion, so that they may believe what is false,</t>
+          <t>Do you not remember that when I was still with you I told you these things?</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2 Thessalonians 2:12</t>
+          <t>2 Thessalonians 2:6</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>in order that all may be condemned who did not believe the truth but had pleasure in unrighteousness. Stand Firm</t>
+          <t>And you know what is restraining him now so that he may be revealed in his time.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2 Thessalonians 2:13</t>
+          <t>2 Thessalonians 2:7</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>But we ought always to give thanks to God for you, brothers beloved by the Lord, because God chose you as the firstfruit16's to be saved, through sanctification by the Spirit and belief in the truth.</t>
+          <t>For l the mystery of lawlessness m is already at work. Only he who now restrains it will do so until he is out of the way.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2 Thessalonians 2:14</t>
+          <t>2 Thessalonians 2:8</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>To this he called you through our gospel, so that you may obtain the glory of our Lord Jesus Christ.</t>
+          <t>And then n the lawless one will be revealed, whom the Lord Jesus o will kill with p the breath of his mouth and bring to nothing by q the appearance of his coming.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2 Thessalonians 2:15</t>
+          <t>2 Thessalonians 2:9</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>So then, brothers, stand firm and hold to the traditions that you were taught by us, either by our spoken word or by our letter.</t>
+          <t>The coming of the lawless one is by the activity of Satan r with all power and false signs and wonders,</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2 Thessalonians 2:16</t>
+          <t>2 Thessalonians 2:10</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Now may our Lord Jesus Christ himself, and God our Father, who loved us and gave us eternal comfort and good hope through grace,</t>
+          <t>and with all wicked deception for s those who are perishing, because they refused to love the truth and so be saved.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2 Thessalonians 2:17</t>
+          <t>2 Thessalonians 2:11</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>comfort your hearts and establish them in every good work and word. Pray for Us 3</t>
+          <t>Therefore t God sends them a strong delusion, so that they may believe u what is false,</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2 Thessalonians 3:1</t>
+          <t>2 Thessalonians 2:12</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Finally, brothers, pray for us, that the word of the Lord may speed ahead and be honored, as happened among you, 2</t>
+          <t>in order that all may be condemned v who did not believe the truth but w had pleasure in unrighteousness. Stand Firm</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2 Thessalonians 3:2</t>
+          <t>2 Thessalonians 2:13</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>and that we may be delivered from wicked and evil men. For not all have faith. 3</t>
+          <t>But x we ought always to give thanks to God for you, y brothers beloved by the Lord, because God chose you z as the firstfruit s</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2 Thessalonians 3:3</t>
+          <t>2 Thessalonians 2:14</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>But the Lord is faithful. He will establish you and guard you against the evil one. 4</t>
+          <t>a to be saved, b through sanctification by the Spirit and belief in the truth.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2 Thessalonians 3:4</t>
+          <t>2 Thessalonians 2:14</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>And we have confidence in the Lord about you, that you are doing and will do the things that we command. 5</t>
+          <t>To this he called you through c our gospel, a so that you may obtain the glory of our Lord Jesus Christ.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2 Thessalonians 3:5</t>
+          <t>2 Thessalonians 2:15</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>May the Lord direct your hearts to the love of God and to the steadfastness of Christ. Warning Against Idleness 6</t>
+          <t>So then, brothers, d stand firm and hold to e the traditions that you were taught by us, either f by our spoken word or by f our letter.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2 Thessalonians 3:6</t>
+          <t>2 Thessalonians 2:16</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Now we command you, brothers, in the name of our Lord Jesus Christ, that you keep away from any brother who is walking in idleness and not in accord with the tradition that you received from us. 7</t>
+          <t>Now may our Lord Jesus Christ himself, and God our Father, g who loved us and gave us eternal comfort and good h hope through grace,</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2 Thessalonians 3:7</t>
+          <t>2 Thessalonians 2:17</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>For you yourselves know how you ought to imitate us, because we were not idle when we were with you, 8</t>
+          <t>comfort your hearts and i establish them in every good work and word. Pray for Us</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2 Thessalonians 3:8</t>
+          <t>2 Thessalonians 3:1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>nor did we eat anyone's bread without paying for it, but with toil and labor we worked night and day, that we might not be a burden to any of you. 9</t>
+          <t>Finally, brothers,</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2 Thessalonians 3:9</t>
+          <t>2 Thessalonians 3:2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>It was not because we do not have that right, but to give you in ourselves an example to imitate.</t>
+          <t>j pray for us, that k the word of the Lord may speed ahead and be honored, as happened among you,</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2 Thessalonians 3:10</t>
+          <t>2 Thessalonians 3:2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>For even when we were with you, we would give you this command: If anyone is not willing to work, let him not eat.</t>
+          <t>and l that we may be delivered from wicked and evil men. For m not all have faith.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2 Thessalonians 3:11</t>
+          <t>2 Thessalonians 3:3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>For we hear that some among you walk in idleness, not busy at work, but busybodies.</t>
+          <t>But n the Lord is faithful. He will establish you and o guard you against p the evil one.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2 Thessalonians 3:12</t>
+          <t>2 Thessalonians 3:4</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Now such persons we command and encourage in the Lord Jesus Christ to do their work quietly and to earn their own living.</t>
+          <t>And q we have confidence in the Lord about you, that you are doing and will do the things that we command.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2 Thessalonians 3:13</t>
+          <t>2 Thessalonians 3:5</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>As for you, brothers, do not grow weary in doing good.</t>
+          <t>May the Lord r direct your hearts to the love of God and to the steadfastness of Christ. Warning Against Idleness</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2 Thessalonians 3:14</t>
+          <t>2 Thessalonians 3:6</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>If anyone does not obey what we say in this letter, take note of that person, and have nothing to do with him, that he may be ashamed.</t>
+          <t>Now we command you, brothers, s in the name of our Lord Jesus Christ, t that you keep away from any u brother v who is walking in idleness and not in accord with the tradition that you received from us.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2 Thessalonians 3:16</t>
+          <t>2 Thessalonians 3:7</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Now may the Lord of peace himself give you peace at all times in every way. The Lord be with you all.</t>
+          <t>For you yourselves know w how you ought to imitate us, because x we were not idle when we were with you,</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>2 Thessalonians 3:8</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>nor did we eat anyone s bread without paying for it, but y with toil and labor we worked night and day, that we might not be a burden to any of you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2 Thessalonians 3:9</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>It was z not because we do not have that right, but to give you in ourselves a an example to imitate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2 Thessalonians 3:10</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>For even when we were with you, we would give you this command: b If anyone is not willing to work, let him not eat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2 Thessalonians 3:11</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>For we hear that some among you c walk in idleness, not busy at work, but d busybodies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2 Thessalonians 3:12</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Now such persons we command and encourage in the Lord Jesus Christ to do their work quietly and to earn their own living.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2 Thessalonians 3:13</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>As for you, brothers, e do not grow weary in doing good.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2 Thessalonians 3:14</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>If anyone does not obey what we say in this letter, take note of that person, and f have nothing to do with him, that he may be ashamed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2 Thessalonians 3:15</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>g Do not regard him as an enemy, but h warn him as a brother. Benediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2 Thessalonians 3:16</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Now may i the Lord of peace himself j give you peace at all times in every way. k The Lord be with you all.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>2 Thessalonians 3:17</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>I, Paul, write this greeting with my own hand. This is the sign of genuineness in every letter of mine; it is the way I write.</t>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>I, Paul, write l this greeting with my own hand. This is the sign of genuineness in every letter of mine; it is the way I write.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2 Thessalonians 3:18</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>m The grace of our Lord Jesus Christ be with you all.</t>
         </is>
       </c>
     </row>
